--- a/data/checklists/wind.xlsx
+++ b/data/checklists/wind.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="10290"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="23955" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="wind" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Service</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>WindSpeed_2081_20yr_SON_rcp85</t>
+  </si>
+  <si>
+    <t>having problem converting to map cache. Cache folder has process locks.</t>
+  </si>
+  <si>
+    <t>failed twice on publish.  Had to publish via arccatalog</t>
   </si>
 </sst>
 </file>
@@ -352,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +536,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -693,8 +705,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1037,11 +1050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,6 +1193,15 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1189,6 +1211,15 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1198,6 +1229,15 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1207,6 +1247,15 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1324,6 +1373,15 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1333,6 +1391,15 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1342,6 +1409,15 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1351,6 +1427,15 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1451,7 +1536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1460,7 +1545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1468,8 +1553,17 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1477,8 +1571,17 @@
       <c r="B35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1486,8 +1589,17 @@
       <c r="B36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1495,8 +1607,14 @@
       <c r="B37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1504,8 +1622,17 @@
       <c r="B38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1513,8 +1640,17 @@
       <c r="B39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1522,8 +1658,17 @@
       <c r="B40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1531,8 +1676,17 @@
       <c r="B41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1541,7 +1695,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1550,7 +1704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1559,7 +1713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1568,7 +1722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1576,8 +1730,14 @@
       <c r="B46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1585,8 +1745,17 @@
       <c r="B47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1594,6 +1763,18 @@
       <c r="B48" t="s">
         <v>51</v>
       </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -1603,6 +1784,15 @@
       <c r="B49" t="s">
         <v>52</v>
       </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -1612,6 +1802,15 @@
       <c r="B50" t="s">
         <v>53</v>
       </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -1621,6 +1820,15 @@
       <c r="B51" t="s">
         <v>54</v>
       </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -1630,6 +1838,15 @@
       <c r="B52" t="s">
         <v>55</v>
       </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -1639,6 +1856,15 @@
       <c r="B53" t="s">
         <v>56</v>
       </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -1684,6 +1910,15 @@
       <c r="B58" t="s">
         <v>61</v>
       </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -1693,6 +1928,15 @@
       <c r="B59" t="s">
         <v>62</v>
       </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -1702,6 +1946,15 @@
       <c r="B60" t="s">
         <v>63</v>
       </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -1710,20 +1963,29 @@
       </c>
       <c r="B61" t="s">
         <v>64</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>SUM(C2:C61)/60</f>
-        <v>0.2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D62">
         <f t="shared" ref="D62:E62" si="1">SUM(D2:D61)/60</f>
-        <v>0.2</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E62">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
   </sheetData>
